--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393098.3471170089</v>
+        <v>-394985.9286334109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478323.2266529633</v>
+        <v>147825.1440794975</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>67.79964016677698</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>264.6742622453273</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>48.10637266807415</v>
+        <v>197.2982592812052</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>336.1390719127051</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>262.4573575443979</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>101.717706569126</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>48.10637266807415</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>349.5618138259251</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>16.66081338060289</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>80.97347500494082</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>140.3362936071825</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.29623012151964</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.37630218413035</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>127.4321567831319</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>9.776318587908435</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>78.59596779143746</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>129.7991263300495</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>161.1706059301396</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>58.43594934075909</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>205.6491443467577</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>64.63350838933475</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.60147955597407</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>41.66725251646321</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>115.2073073197154</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1748.280186455194</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1379.317669514782</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1021.051970908032</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1021.051970908032</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,13 +4325,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2429.801351376478</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2077.032696106363</v>
       </c>
       <c r="X2" t="n">
-        <v>2134.880026519315</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y2" t="n">
-        <v>2134.880026519315</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,34 +4416,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>424.8522003762303</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1924.457674141024</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1555.495157200612</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1197.229458593861</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>811.4412059956171</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4583,10 +4583,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4601,16 +4601,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2377.011959584677</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>2311.057514205145</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,43 +4650,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>679.5366885821171</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>679.5366885821171</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>589.4492616060802</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>589.4492616060802</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>231.1835629993297</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>231.1835629993297</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>224.2380622501262</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702019</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>432.0491721307175</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>432.0491721307175</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>432.0491721307175</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3248101529462</v>
+        <v>999.2632410381163</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826479</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205529</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>1046.167325108833</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.3743239205529</v>
+        <v>825.3747459653033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5279,34 +5279,34 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>1442.339749591389</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N15" t="n">
-        <v>1786.860405229007</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O15" t="n">
-        <v>2035.613819312969</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>289.9398668627124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>289.9398668627124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344996</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364823</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5883316929521</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>216.1238960466385</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>341.481456104476</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L18" t="n">
-        <v>571.4445619728251</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M18" t="n">
-        <v>1339.812708365287</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N18" t="n">
-        <v>1684.333364002905</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O18" t="n">
-        <v>2353.797125305564</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>693.7762810288177</v>
+        <v>426.144983081244</v>
       </c>
       <c r="C19" t="n">
-        <v>524.8400981009108</v>
+        <v>257.2088001533372</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>107.0921607410014</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1419.526404101905</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.841915896018</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="W19" t="n">
-        <v>875.4247458590575</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="X19" t="n">
-        <v>875.4247458590575</v>
+        <v>646.9375622247742</v>
       </c>
       <c r="Y19" t="n">
-        <v>875.4247458590575</v>
+        <v>426.144983081244</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,19 +5738,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5765,16 +5765,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
         <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>772.8730769161741</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.284655180325</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O21" t="n">
-        <v>2033.878325127062</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>376.2404136588906</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1336.117678709276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1336.117678709276</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>1046.700508672316</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.893908186785</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.414563824403</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.878325127062</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.9958217162123</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C25" t="n">
-        <v>506.0596387883054</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E25" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.89005910259</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1439.89005910259</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.89005910259</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.205570896703</v>
+        <v>844.0280401273994</v>
       </c>
       <c r="W25" t="n">
-        <v>895.7884008597424</v>
+        <v>844.0280401273994</v>
       </c>
       <c r="X25" t="n">
-        <v>895.7884008597424</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.9958217162123</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>1026.585720682179</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.4221461351941</v>
+        <v>800.1496160432038</v>
       </c>
       <c r="C28" t="n">
-        <v>563.4221461351941</v>
+        <v>631.2134331152969</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>481.0967937029611</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>481.0967937029611</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>481.0967937029611</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>312.9214720227817</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>162.503463570725</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765188</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765188</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765188</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X28" t="n">
-        <v>745.0706109654338</v>
+        <v>981.7980808734435</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.0706109654338</v>
+        <v>981.7980808734435</v>
       </c>
     </row>
     <row r="29">
@@ -6458,46 +6458,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>327.180197328635</v>
+        <v>424.0331423495618</v>
       </c>
       <c r="M30" t="n">
-        <v>647.5155168583367</v>
+        <v>744.3684618792636</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143414</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215245</v>
+        <v>656.2176762508392</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749887</v>
+        <v>543.0423586043031</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440237</v>
+        <v>448.6865844733381</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>356.5343561723158</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>265.4052739557761</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,10 +6628,10 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1503.284906591123</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1304.361283666607</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386972</v>
+        <v>1070.704978911017</v>
       </c>
       <c r="X31" t="n">
-        <v>915.9065332836839</v>
+        <v>898.4762932943702</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.8748194215245</v>
+        <v>782.1052757997081</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171745</v>
+        <v>661.6060969157195</v>
       </c>
       <c r="M33" t="n">
-        <v>711.1141612171745</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.525739481325</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,16 +6877,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7023,19 +7023,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899877</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626376</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083202</v>
@@ -7321,7 +7321,7 @@
         <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,19 +7330,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7394,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7430,7 +7430,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899877</v>
+        <v>1377.135023317374</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.963989254138</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O42" t="n">
-        <v>1891.427750556797</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>253.5791902087764</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>187.3601610345301</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776758</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>342.0478048621353</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11391,13 +11391,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>81.21126745120674</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>203.2884232305751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>68.239170834082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>136.6576440586607</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>207.6413846071399</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>18.81634668816286</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>125.0667464684378</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4848606428442</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>20.06051104227947</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>45.78573707493722</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.1081758330631</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.8391462440168</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>48.17408940382231</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1153535.726226241</v>
+        <v>1153535.726226242</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1153535.726226241</v>
+        <v>1153535.726226242</v>
       </c>
     </row>
     <row r="10">
@@ -26335,7 +26335,7 @@
         <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
         <v>223752.1755398986</v>
@@ -26344,13 +26344,13 @@
         <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126782</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>44162.60530284564</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
@@ -26433,28 +26433,28 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758361</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575957</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477247</v>
+        <v>18952.41620477235</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-586099.609745895</v>
       </c>
       <c r="C6" t="n">
-        <v>3868.269468649451</v>
+        <v>3868.269468649436</v>
       </c>
       <c r="D6" t="n">
-        <v>3868.269468649523</v>
+        <v>3868.269468649407</v>
       </c>
       <c r="E6" t="n">
-        <v>-402869.1732604486</v>
+        <v>-402966.6323864209</v>
       </c>
       <c r="F6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="G6" t="n">
-        <v>122290.8632164473</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="H6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.4040904752</v>
       </c>
       <c r="I6" t="n">
-        <v>122290.8632164474</v>
+        <v>122193.404090475</v>
       </c>
       <c r="J6" t="n">
-        <v>-54132.35597614569</v>
+        <v>-54229.81510211772</v>
       </c>
       <c r="K6" t="n">
-        <v>64008.94550205766</v>
+        <v>63990.45176412338</v>
       </c>
       <c r="L6" t="n">
-        <v>94521.89315988953</v>
+        <v>94521.89315988956</v>
       </c>
       <c r="M6" t="n">
-        <v>-29936.21527308086</v>
+        <v>-29936.21527308074</v>
       </c>
       <c r="N6" t="n">
         <v>104864.7999607564</v>
       </c>
       <c r="O6" t="n">
-        <v>104864.7999607563</v>
+        <v>104864.7999607565</v>
       </c>
       <c r="P6" t="n">
-        <v>60702.19465791076</v>
+        <v>60702.19465791072</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
@@ -26722,7 +26722,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>339.0764055749345</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>63.07799622480763</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>238.4166256685168</v>
+        <v>89.22473905538581</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.73697382900633</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>65.29490092573701</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>44.71625607744319</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>176.9287327900101</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>33.17202783755545</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.1233566401921</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>144.0616304531434</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053969</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,31 +31610,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>126.0475280469432</v>
+        <v>384.2467489891733</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32090,13 +32090,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>118.6626388367733</v>
       </c>
       <c r="P15" t="n">
-        <v>111.3199910445496</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>120.8544747468162</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>310.474204443229</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32336,13 +32336,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32485,7 +32485,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946992</v>
@@ -32558,22 +32558,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>209.9396523866412</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>249.5159911824348</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>123.4283357138067</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33272,25 +33272,25 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>148.1449823495588</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33503,31 +33503,31 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>337.8039389768529</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>44.3275886458481</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -33743,28 +33743,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>145.1299578148855</v>
       </c>
       <c r="O36" t="n">
-        <v>340.85460907735</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565529</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>216.4869287318326</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>324.253156413393</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33992,16 +33992,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130445</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>153.9475105678406</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>246.2250987807837</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,28 +34436,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>351.8486799199657</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,16 +34466,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>358.3334935705282</v>
+        <v>616.5327145127583</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35510,7 +35510,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35738,13 +35738,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>369.9287136690584</v>
       </c>
       <c r="P15" t="n">
-        <v>295.8083522701565</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>120.1078834205583</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>634.0452342712106</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36206,22 +36206,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>461.2057272189263</v>
+        <v>110.982945764332</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>573.0870210104164</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>56.01844895119682</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337001</v>
+        <v>355.7143012373917</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>203.4934250822611</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>496.145644609779</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>570.0899045004379</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>295.5936634781332</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>493.1306200751057</v>
       </c>
       <c r="O36" t="n">
-        <v>592.1206839096351</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>343.1107267700522</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>672.2538186736132</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>477.5185403958222</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>430.7134600063906</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -37956,7 +37956,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>699.8493421801859</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
